--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\Desktop\Fuehrerschein\Fuehrerschein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\Fuehrerschein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Parents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Rent</t>
   </si>
@@ -228,12 +228,15 @@
   </si>
   <si>
     <t xml:space="preserve">20 * 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -339,11 +342,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -368,9 +382,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,25 +672,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
@@ -701,7 +717,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -745,13 +761,13 @@
       </c>
       <c r="R3" s="2">
         <f>SUM(B16:H16)+1000</f>
-        <v>6422</v>
+        <v>6382</v>
       </c>
       <c r="T3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -766,8 +782,8 @@
         <v>2364</v>
       </c>
       <c r="E4" s="8">
-        <f>2364+1500</f>
-        <v>3864</v>
+        <f>2364+1460</f>
+        <v>3824</v>
       </c>
       <c r="F4" s="8">
         <v>2364</v>
@@ -788,26 +804,26 @@
         <v>400</v>
       </c>
       <c r="M4" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N4" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O9" si="0">SUM(K4:N4)</f>
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -845,7 +861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -899,7 +915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1123,25 +1139,25 @@
       </c>
       <c r="M11" s="1">
         <f>SUM(M4:M9)</f>
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N11" s="1">
         <f>SUM(N4:N9)</f>
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="O11" s="2">
         <f>K11+L11+M11+N11</f>
-        <v>3400</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="2">
-        <f>R3-SUM(R4:R10)</f>
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3440</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="15">
+        <f>SUM(R4:R10)</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -1158,10 +1174,15 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="2">
+        <f>R3-SUM(R4:R10)</f>
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -1183,7 +1204,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1217,7 +1238,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
         <v>66</v>
@@ -1232,7 +1253,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>2101</v>
+        <v>2061</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -1247,14 +1268,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1321,7 +1342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1333,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>27</v>
       </c>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\Desktop\Fuhrer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\Fuhrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Parents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +386,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,24 +673,25 @@
   <dimension ref="A2:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -717,7 +718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -767,7 +768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -817,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="R4" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -855,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="R5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="R6" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="T6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,13 +964,13 @@
         <v>5</v>
       </c>
       <c r="R7" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="T7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1017,13 +1018,13 @@
         <v>6</v>
       </c>
       <c r="R8" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,13 +1072,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1154,10 +1155,10 @@
       </c>
       <c r="R11" s="10">
         <f>SUM(R4:R10)</f>
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -1179,10 +1180,10 @@
       </c>
       <c r="R12" s="2">
         <f>R3-SUM(R4:R10)</f>
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -1204,7 +1205,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1239,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
         <v>66</v>
@@ -1268,14 +1269,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>27</v>
       </c>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\Fuhrer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\Otunar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Rent</t>
   </si>
@@ -232,13 +232,22 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaggu </t>
+  </si>
+  <si>
+    <t>Yokesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +277,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -283,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -354,11 +378,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -385,6 +418,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -671,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T34"/>
+  <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,13 +727,14 @@
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="9" max="10" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -703,23 +745,23 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="Q2" s="12" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="R2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="T2" t="s">
+      <c r="S2" s="14"/>
+      <c r="U2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -742,12 +784,12 @@
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
@@ -758,18 +800,18 @@
       <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <f>SUM(B16:H16)+1000</f>
-        <v>6382</v>
-      </c>
-      <c r="T3" t="s">
+        <v>6376</v>
+      </c>
+      <c r="U3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -784,8 +826,8 @@
         <v>2364</v>
       </c>
       <c r="E4" s="8">
-        <f>2364+1460</f>
-        <v>3824</v>
+        <f>2364+1450</f>
+        <v>3814</v>
       </c>
       <c r="F4" s="8">
         <v>2364</v>
@@ -796,14 +838,14 @@
       <c r="H4" s="8">
         <v>2364</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="20">
+        <v>2364</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1">
-        <v>220</v>
-      </c>
-      <c r="L4" s="3">
-        <v>400</v>
+      <c r="L4" s="1">
+        <v>250</v>
       </c>
       <c r="M4" s="1">
         <v>140</v>
@@ -812,20 +854,20 @@
         <v>180</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O9" si="0">SUM(K4:N4)</f>
-        <v>940</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+        <f>SUM(L4:N4)</f>
+        <v>570</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>1600</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -834,14 +876,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>150</v>
-      </c>
-      <c r="L5" s="3">
-        <v>450</v>
       </c>
       <c r="M5" s="1">
         <v>300</v>
@@ -850,20 +889,20 @@
         <v>120</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+        <f>SUM(L5:N5)</f>
+        <v>570</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -886,16 +925,16 @@
         <v>600</v>
       </c>
       <c r="H6" s="1">
-        <v>450</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" s="21">
+        <v>400</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>150</v>
-      </c>
-      <c r="L6" s="1">
-        <v>200</v>
       </c>
       <c r="M6" s="1">
         <v>150</v>
@@ -904,20 +943,20 @@
         <v>100</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+        <f>SUM(L6:N6)</f>
+        <v>400</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>120</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,14 +981,14 @@
       <c r="H7" s="1">
         <v>300</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="21">
+        <v>300</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>50</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -958,20 +997,20 @@
         <v>30</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:N7)</f>
         <v>80</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>150</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,10 +1018,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
@@ -996,14 +1035,14 @@
       <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="23">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>50</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1012,20 +1051,20 @@
         <v>30</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(L8:N8)</f>
         <v>80</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="1">
-        <v>300</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="S8" s="1">
+        <v>200</v>
+      </c>
+      <c r="U8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>13</v>
@@ -1050,14 +1089,14 @@
       <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="23">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>290</v>
       </c>
       <c r="M9" s="3">
         <v>130</v>
@@ -1066,20 +1105,20 @@
         <v>100</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+        <f>SUM(L9:N9)</f>
+        <v>430</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>300</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1104,20 +1143,22 @@
       <c r="H10" s="1">
         <v>688</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="I10" s="23">
+        <v>688</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1130,14 +1171,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <f>SUM(K4:K9)</f>
-        <v>820</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f>SUM(L4:L9)</f>
-        <v>1340</v>
+        <v>850</v>
       </c>
       <c r="M11" s="1">
         <f>SUM(M4:M9)</f>
@@ -1148,18 +1185,18 @@
         <v>560</v>
       </c>
       <c r="O11" s="2">
-        <f>K11+L11+M11+N11</f>
-        <v>3440</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+        <f>L11+M11+N11</f>
+        <v>2130</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="10">
-        <f>SUM(R4:R10)</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="10">
+        <f>SUM(S4:S10)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -1170,21 +1207,21 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="2" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="2">
-        <f>R3-SUM(R4:R10)</f>
-        <v>3882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="2">
+        <f>S3-SUM(S4:S10)</f>
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -1197,16 +1234,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1231,108 +1268,158 @@
       <c r="H14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
+        <f t="shared" ref="B16:H16" si="0">B4-SUM(B6:B14)</f>
         <v>66</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>581</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>601</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>2061</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>601</v>
-      </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="K22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="22">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="K23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="22">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="22">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L26" s="18">
+        <f>SUM(L19:L24)</f>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1344,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1355,8 +1442,11 @@
         <f>51</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1366,8 +1456,11 @@
       <c r="C30">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1394,15 +1487,15 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <f>SUM(C22:C26)</f>
-        <v>330</v>
+        <f>SUM(C28:C32)</f>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Rent</t>
   </si>
@@ -186,9 +186,6 @@
     <t>License</t>
   </si>
   <si>
-    <t>Jaggu</t>
-  </si>
-  <si>
     <t>Gebührenfrei</t>
   </si>
   <si>
@@ -235,6 +232,18 @@
   </si>
   <si>
     <t>Shoes</t>
+  </si>
+  <si>
+    <t>Sperrkonto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Koblenz trip</t>
+  </si>
+  <si>
+    <t>Ob Letter</t>
   </si>
 </sst>
 </file>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +769,7 @@
       </c>
       <c r="S2" s="24"/>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -787,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
@@ -806,11 +815,11 @@
         <v>28</v>
       </c>
       <c r="S3" s="2">
-        <f>SUM(B16:I16)</f>
-        <v>6327</v>
+        <f>SUM(B17:I17)</f>
+        <v>5652</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -866,7 +875,7 @@
         <v>1620</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -895,14 +904,14 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="1">
-        <v>60</v>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5">
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -913,10 +922,11 @@
         <v>575</v>
       </c>
       <c r="C6" s="1">
-        <v>650</v>
+        <f>650+305</f>
+        <v>955</v>
       </c>
       <c r="D6" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E6" s="1">
         <v>600</v>
@@ -950,13 +960,13 @@
         <v>400</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="S6" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1004,13 +1014,13 @@
         <v>80</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1027,16 +1037,16 @@
         <v>120</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G8" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I8" s="6">
         <v>100</v>
@@ -1058,13 +1068,13 @@
         <v>80</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1112,13 +1122,13 @@
         <v>580</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1155,10 +1165,10 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1168,7 +1178,9 @@
       <c r="B11" s="6">
         <v>950</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1192,20 +1204,23 @@
         <f>L11+M11+N11</f>
         <v>2380</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="10">
-        <f>SUM(S4:S10)</f>
-        <v>2425</v>
+      <c r="R11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1218,22 +1233,22 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
-      <c r="R12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="2">
-        <f>S3-SUM(S4:S10)</f>
-        <v>3902</v>
+      <c r="R12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="10">
+        <f>SUM(S4:S11)</f>
+        <v>2454</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="6">
-        <v>90</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>60</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1246,37 +1261,30 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="R13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="2">
+        <f>S3-SUM(S4:S11)</f>
+        <v>3198</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12</v>
-      </c>
-      <c r="G14" s="17">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1">
-        <v>12</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1287,106 +1295,126 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:H17" si="1">B4-SUM(B6:B15)</f>
         <v>66</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="D16" s="1">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>531</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>581</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="1"/>
         <v>631</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>2101</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>601</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="1"/>
-        <v>651</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <v>831</v>
+      </c>
+      <c r="I17" s="1">
+        <f>SUM(I4-(I6+I7+I8+I9+I10 + I15))</f>
         <v>851</v>
       </c>
-      <c r="I16" s="1">
-        <f>SUM(I4-(I6+I7+I8+I9+I10 + I14))</f>
-        <v>851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K19" s="1" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L20" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="K20" s="1" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L21" s="12">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K21" s="1" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="13">
         <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="14">
-        <v>48</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="14">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -1394,111 +1422,128 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="14">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="12">
-        <v>290</v>
+        <v>20</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="14">
-        <v>54</v>
-      </c>
-      <c r="L25" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="12">
+        <v>290</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="14">
+        <v>54</v>
+      </c>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C27" s="14">
         <v>90</v>
       </c>
-      <c r="L26" s="13">
-        <f>SUM(L19:L24)</f>
+      <c r="L27" s="13">
+        <f>SUM(L20:L25)</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f>26*3</f>
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f>51</f>
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>105</v>
-      </c>
-    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32">
+      <c r="C33">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C34">
-        <f>SUM(C28:C32)</f>
+      <c r="C35">
+        <f>SUM(C29:C33)</f>
         <v>333</v>
       </c>
     </row>
@@ -1507,7 +1552,7 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Rent</t>
   </si>
@@ -93,157 +93,157 @@
     <t>Entrance</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany / Austria</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Itirenary</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Winsim, Insurance</t>
+  </si>
+  <si>
+    <t>Entry Ticket</t>
+  </si>
+  <si>
+    <t>Vatican Museum</t>
+  </si>
+  <si>
+    <t>Florence Museum</t>
+  </si>
+  <si>
+    <t>Venice Museum</t>
+  </si>
+  <si>
+    <t>Eiffel Tower</t>
+  </si>
+  <si>
+    <t>16 x3</t>
+  </si>
+  <si>
+    <t>21 x 3</t>
+  </si>
+  <si>
+    <t>25 x 3</t>
+  </si>
+  <si>
+    <t>18 x 3</t>
+  </si>
+  <si>
+    <t>30 x 3</t>
+  </si>
+  <si>
+    <t>Colesseum, Palatine, Forum</t>
+  </si>
+  <si>
+    <t>Pisa, Baptistry, Museum</t>
+  </si>
+  <si>
+    <t>26 x 3</t>
+  </si>
+  <si>
+    <t>Mona Lisa Museum</t>
+  </si>
+  <si>
+    <t>17 x 3</t>
+  </si>
+  <si>
+    <t>Zugspitte</t>
+  </si>
+  <si>
+    <t>35 * 3</t>
+  </si>
+  <si>
+    <t>SimCard</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Gebührenfrei</t>
+  </si>
+  <si>
+    <t>Medicine List</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Mouth Ulcer</t>
+  </si>
+  <si>
+    <t>Dysentry</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Hrishikesh</t>
+  </si>
+  <si>
+    <t>Neuschwanstein</t>
+  </si>
+  <si>
+    <t>13 * 3</t>
+  </si>
+  <si>
+    <t>Königsee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 * 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Sperrkonto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Koblenz trip</t>
+  </si>
+  <si>
+    <t>Ob Letter</t>
+  </si>
+  <si>
     <t>Italy</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany / Austria</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Itirenary</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Winsim, Insurance</t>
-  </si>
-  <si>
-    <t>Entry Ticket</t>
-  </si>
-  <si>
-    <t>Vatican Museum</t>
-  </si>
-  <si>
-    <t>Florence Museum</t>
-  </si>
-  <si>
-    <t>Venice Museum</t>
-  </si>
-  <si>
-    <t>Eiffel Tower</t>
-  </si>
-  <si>
-    <t>16 x3</t>
-  </si>
-  <si>
-    <t>21 x 3</t>
-  </si>
-  <si>
-    <t>25 x 3</t>
-  </si>
-  <si>
-    <t>18 x 3</t>
-  </si>
-  <si>
-    <t>30 x 3</t>
-  </si>
-  <si>
-    <t>Colesseum, Palatine, Forum</t>
-  </si>
-  <si>
-    <t>Pisa, Baptistry, Museum</t>
-  </si>
-  <si>
-    <t>26 x 3</t>
-  </si>
-  <si>
-    <t>Mona Lisa Museum</t>
-  </si>
-  <si>
-    <t>17 x 3</t>
-  </si>
-  <si>
-    <t>Zugspitte</t>
-  </si>
-  <si>
-    <t>35 * 3</t>
-  </si>
-  <si>
-    <t>SimCard</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Gebührenfrei</t>
-  </si>
-  <si>
-    <t>Medicine List</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Mouth Ulcer</t>
-  </si>
-  <si>
-    <t>Dysentry</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Eye</t>
-  </si>
-  <si>
-    <t>Hrishikesh</t>
-  </si>
-  <si>
-    <t>Neuschwanstein</t>
-  </si>
-  <si>
-    <t>13 * 3</t>
-  </si>
-  <si>
-    <t>Königsee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 * 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Sperrkonto</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Koblenz trip</t>
-  </si>
-  <si>
-    <t>Ob Letter</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -406,19 +406,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,133 +751,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="10" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="K2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="R2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="24"/>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="K2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="S2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="30"/>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>67</v>
+      <c r="H3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="2">
         <f>SUM(B17:I17)</f>
-        <v>5652</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8">
+        <v>5592</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="16">
         <f>2394+350</f>
         <v>2744</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="16">
         <v>2364</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>2364</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="16">
         <f>2364+1450</f>
         <v>3814</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="16">
         <v>2364</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="23">
         <v>2364</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="16">
         <v>2364</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="24">
         <v>2364</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -862,32 +895,35 @@
         <v>140</v>
       </c>
       <c r="N4" s="1">
+        <v>400</v>
+      </c>
+      <c r="O4" s="1">
         <v>180</v>
       </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4:O9" si="0">SUM(L4:N4)</f>
-        <v>670</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P9" si="0">SUM(L4:O4)</f>
+        <v>1070</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>1620</v>
       </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
@@ -897,50 +933,51 @@
       <c r="M5" s="1">
         <v>300</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
         <v>120</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="R5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5">
+      <c r="S5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="1">
         <v>29</v>
       </c>
-      <c r="U5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>575</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="17">
         <f>650+305</f>
         <v>955</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="17">
         <v>700</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>600</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>650</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="25">
         <v>600</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="17">
         <v>400</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="18">
         <v>400</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -952,49 +989,50 @@
       <c r="M6" s="1">
         <v>150</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>100</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="S6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="1">
         <v>60</v>
       </c>
-      <c r="U6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>300</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="17">
         <v>300</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="17">
         <v>300</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>300</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="17">
         <v>300</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="25">
         <v>300</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="17">
         <v>300</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="18">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1006,49 +1044,50 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>30</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>120</v>
       </c>
-      <c r="U7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>50</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>120</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
+        <v>150</v>
+      </c>
+      <c r="E8" s="17">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="17">
         <v>120</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="25">
         <v>120</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="17">
         <v>120</v>
       </c>
-      <c r="H8" s="1">
-        <v>120</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="I8" s="18">
         <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1060,49 +1099,50 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>30</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>150</v>
       </c>
-      <c r="U8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="17">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="17">
         <v>13</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="17">
         <v>13</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="25">
         <v>13</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="17">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="18">
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1114,49 +1154,50 @@
       <c r="M9" s="3">
         <v>130</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="14">
         <v>200</v>
       </c>
-      <c r="U9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="17">
         <v>688</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="17">
         <v>688</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="17">
         <v>688</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>688</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="17">
         <v>688</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="25">
         <v>688</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="17">
         <v>688</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="18">
         <v>688</v>
       </c>
       <c r="K10" s="1"/>
@@ -1164,29 +1205,30 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="P10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="14">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6">
+        <v>51</v>
+      </c>
+      <c r="B11" s="18">
         <v>950</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="C11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f>SUM(L4:L9)</f>
@@ -1196,362 +1238,399 @@
         <f>SUM(M4:M9)</f>
         <v>720</v>
       </c>
-      <c r="N11" s="1">
-        <f>SUM(N4:N9)</f>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <f>SUM(O4:O9)</f>
         <v>560</v>
       </c>
-      <c r="O11" s="2">
-        <f>L11+M11+N11</f>
+      <c r="P11" s="2">
+        <f>L11+M11+O11</f>
         <v>2380</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="S11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="C12" s="18">
         <v>100</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="R12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="10">
-        <f>SUM(S4:S11)</f>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="2">
+        <f>SUM(T4:T11)</f>
         <v>2454</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
         <v>60</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="R13" s="2" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="2">
-        <f>S3-SUM(S4:S11)</f>
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T13" s="2">
+        <f>T3-SUM(T4:T11)</f>
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6">
+        <v>52</v>
+      </c>
+      <c r="B14" s="18">
         <v>90</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="18">
         <v>30</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="D14" s="18">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1">
+        <v>31</v>
+      </c>
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="17">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="17">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="17">
         <v>12</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="17">
         <v>12</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="25">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="17">
         <v>12</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="17">
         <v>12</v>
       </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
       <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
         <f t="shared" ref="B17:H17" si="1">B4-SUM(B6:B15)</f>
         <v>66</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <f t="shared" si="1"/>
-        <v>531</v>
-      </c>
-      <c r="E17" s="1">
+        <v>471</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>2081</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="17">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
         <f t="shared" si="1"/>
         <v>631</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="17">
         <f t="shared" si="1"/>
         <v>831</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="17">
         <f>SUM(I4-(I6+I7+I8+I9+I10 + I15))</f>
         <v>851</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="13"/>
+      <c r="O21">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="4"/>
+      <c r="L22" s="13"/>
+      <c r="O22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="20">
+        <v>48</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="13"/>
+      <c r="O23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20">
+        <v>63</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="14">
-        <v>48</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="B25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="20">
+        <v>75</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="14">
-        <v>63</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="20">
+        <v>54</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="20">
+        <v>90</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28" s="4"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="14">
-        <v>75</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="12">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="14">
-        <v>54</v>
-      </c>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="14">
-        <v>90</v>
-      </c>
-      <c r="L27" s="13">
-        <f>SUM(L20:L25)</f>
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="19">
         <f>26*3</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K29" s="4"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="19">
         <f>51</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="19">
+        <v>2450</v>
+      </c>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="19">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="19">
+        <v>950</v>
+      </c>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="19">
+        <v>39</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="19">
+        <v>320</v>
+      </c>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="C32">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33">
+      <c r="C33" s="19">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
+      <c r="G33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="19">
+        <v>688</v>
+      </c>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19">
         <f>SUM(C29:C33)</f>
         <v>333</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="19">
+        <f>H30-H31-H32-H33</f>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
